--- a/data/trans_orig/P43B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7DBF15-6C1C-4765-B191-D9DAE09B3CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F1D0C3-EEDD-47E2-8C6A-212555B1C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA6B8A65-D854-4D5B-999B-9D4481545232}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C72F0E5-44E8-400A-8A5F-E75156F743C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>18,85%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,37 +127,37 @@
     <t>44,26%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -169,73 +169,73 @@
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -244,73 +244,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>54,69%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C805818-EA5C-46C5-A158-F9075786C991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7242CF-0F63-4165-99EF-8727AD7464BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1352,7 +1352,7 @@
         <v>1288</v>
       </c>
       <c r="I14" s="7">
-        <v>1399411</v>
+        <v>1399412</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -1367,7 +1367,7 @@
         <v>1288</v>
       </c>
       <c r="N14" s="7">
-        <v>1399411</v>
+        <v>1399412</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1401,7 +1401,7 @@
         <v>1492</v>
       </c>
       <c r="I15" s="7">
-        <v>1633446</v>
+        <v>1633447</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>1492</v>
       </c>
       <c r="N15" s="7">
-        <v>1633446</v>
+        <v>1633447</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22392F34-3A64-488B-A246-48A14B97A008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B65D91-AF57-4D5E-AD92-BCCFCE81CE35}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D38AD00-35F9-4744-A8F6-6D07CA003E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E40A5-9EBB-4779-B5D9-2343F7E4F2D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F1D0C3-EEDD-47E2-8C6A-212555B1C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A96A6F-E669-4D2E-8BBE-25DEA942D5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C72F0E5-44E8-400A-8A5F-E75156F743C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4DC6AD9-E262-4549-AADD-65E3C6936D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,10 +79,10 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>18,85%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,115 +127,115 @@
     <t>44,26%</t>
   </si>
   <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha mamografía en 2015 (Tasa respuesta: 23,37%)</t>
+    <t>Población según el lugar donde le realizaron dicha mamografía en 2016 (Tasa respuesta: 23,37%)</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7242CF-0F63-4165-99EF-8727AD7464BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E45ADDC-2A19-4974-A1B2-EB3F7D486A7A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1352,7 +1352,7 @@
         <v>1288</v>
       </c>
       <c r="I14" s="7">
-        <v>1399412</v>
+        <v>1399411</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -1367,7 +1367,7 @@
         <v>1288</v>
       </c>
       <c r="N14" s="7">
-        <v>1399412</v>
+        <v>1399411</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1401,7 +1401,7 @@
         <v>1492</v>
       </c>
       <c r="I15" s="7">
-        <v>1633447</v>
+        <v>1633446</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>1492</v>
       </c>
       <c r="N15" s="7">
-        <v>1633447</v>
+        <v>1633446</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B65D91-AF57-4D5E-AD92-BCCFCE81CE35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C17F2-97CB-4F04-8E22-3D41D4392517}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E40A5-9EBB-4779-B5D9-2343F7E4F2D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0AF8A2-E820-4E86-A798-56CE7AC1FE84}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A96A6F-E669-4D2E-8BBE-25DEA942D5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FBF120-D147-4B80-BBDE-BADE509FA130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4DC6AD9-E262-4549-AADD-65E3C6936D6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0741E115-5686-4EAB-A340-151D388708F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>18,85%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,37 +127,37 @@
     <t>44,26%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -169,73 +169,73 @@
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -244,73 +244,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>54,69%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E45ADDC-2A19-4974-A1B2-EB3F7D486A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAEB3CB-7F98-465B-B064-4EFA73CED337}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C17F2-97CB-4F04-8E22-3D41D4392517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4003A5F1-F71F-4623-8873-CF40B4D9D7BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0AF8A2-E820-4E86-A798-56CE7AC1FE84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261DFA29-CC36-4A12-8DC0-59F6499F8324}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FBF120-D147-4B80-BBDE-BADE509FA130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CC55F0-907E-43D1-8F0A-B88AF12C7E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0741E115-5686-4EAB-A340-151D388708F8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B777E94-FBD4-48D2-B650-453E935368BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -241,76 +241,76 @@
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAEB3CB-7F98-465B-B064-4EFA73CED337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53CA949-5135-48C2-AA20-62BF9AB0C732}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1352,7 +1352,7 @@
         <v>1288</v>
       </c>
       <c r="I14" s="7">
-        <v>1399411</v>
+        <v>1399412</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -1367,7 +1367,7 @@
         <v>1288</v>
       </c>
       <c r="N14" s="7">
-        <v>1399411</v>
+        <v>1399412</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1401,7 +1401,7 @@
         <v>1492</v>
       </c>
       <c r="I15" s="7">
-        <v>1633446</v>
+        <v>1633447</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>1492</v>
       </c>
       <c r="N15" s="7">
-        <v>1633446</v>
+        <v>1633447</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4003A5F1-F71F-4623-8873-CF40B4D9D7BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF553B9-DA08-46C6-8F87-C337E0819660}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261DFA29-CC36-4A12-8DC0-59F6499F8324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B140FA-C0B7-46BD-88BF-2EAFFE6223C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2310,7 +2310,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>20720</v>
+        <v>19055</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>67</v>
@@ -2325,7 +2325,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>20720</v>
+        <v>19055</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>67</v>
@@ -2359,7 +2359,7 @@
         <v>760</v>
       </c>
       <c r="I5" s="7">
-        <v>417975</v>
+        <v>378570</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>70</v>
@@ -2374,7 +2374,7 @@
         <v>760</v>
       </c>
       <c r="N5" s="7">
-        <v>417975</v>
+        <v>378570</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>70</v>
@@ -2408,7 +2408,7 @@
         <v>792</v>
       </c>
       <c r="I6" s="7">
-        <v>438695</v>
+        <v>397625</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2423,7 +2423,7 @@
         <v>792</v>
       </c>
       <c r="N6" s="7">
-        <v>438695</v>
+        <v>397625</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2459,7 +2459,7 @@
         <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>112245</v>
+        <v>104093</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>73</v>
@@ -2474,7 +2474,7 @@
         <v>171</v>
       </c>
       <c r="N7" s="7">
-        <v>112245</v>
+        <v>104093</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>73</v>
@@ -2508,7 +2508,7 @@
         <v>1025</v>
       </c>
       <c r="I8" s="7">
-        <v>737727</v>
+        <v>809190</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>76</v>
@@ -2523,7 +2523,7 @@
         <v>1025</v>
       </c>
       <c r="N8" s="7">
-        <v>737727</v>
+        <v>809190</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>76</v>
@@ -2557,7 +2557,7 @@
         <v>1196</v>
       </c>
       <c r="I9" s="7">
-        <v>849972</v>
+        <v>913283</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2572,7 +2572,7 @@
         <v>1196</v>
       </c>
       <c r="N9" s="7">
-        <v>849972</v>
+        <v>913283</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2608,7 +2608,7 @@
         <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>131232</v>
+        <v>121637</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>79</v>
@@ -2623,7 +2623,7 @@
         <v>199</v>
       </c>
       <c r="N10" s="7">
-        <v>131232</v>
+        <v>121637</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>79</v>
@@ -2657,7 +2657,7 @@
         <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>158429</v>
+        <v>146296</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>82</v>
@@ -2672,7 +2672,7 @@
         <v>272</v>
       </c>
       <c r="N11" s="7">
-        <v>158429</v>
+        <v>146296</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>82</v>
@@ -2706,7 +2706,7 @@
         <v>471</v>
       </c>
       <c r="I12" s="7">
-        <v>289661</v>
+        <v>267933</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2721,7 +2721,7 @@
         <v>471</v>
       </c>
       <c r="N12" s="7">
-        <v>289661</v>
+        <v>267933</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2757,7 +2757,7 @@
         <v>402</v>
       </c>
       <c r="I13" s="7">
-        <v>264197</v>
+        <v>244786</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2772,7 +2772,7 @@
         <v>402</v>
       </c>
       <c r="N13" s="7">
-        <v>264197</v>
+        <v>244786</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2806,7 +2806,7 @@
         <v>2057</v>
       </c>
       <c r="I14" s="7">
-        <v>1314131</v>
+        <v>1334056</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
@@ -2821,7 +2821,7 @@
         <v>2057</v>
       </c>
       <c r="N14" s="7">
-        <v>1314131</v>
+        <v>1334056</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>88</v>
@@ -2855,7 +2855,7 @@
         <v>2459</v>
       </c>
       <c r="I15" s="7">
-        <v>1578328</v>
+        <v>1578842</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2870,7 +2870,7 @@
         <v>2459</v>
       </c>
       <c r="N15" s="7">
-        <v>1578328</v>
+        <v>1578842</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
